--- a/InputData/endo-learn/FoTOMRAEL/Frac of Tech Outside Modeled Region Affecting Endo Learning.xlsx
+++ b/InputData/endo-learn/FoTOMRAEL/Frac of Tech Outside Modeled Region Affecting Endo Learning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\ctrl-settings\FoTOMRAEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anaxolt/Google Drive/2021/D.Development/TARGET_eps-us-3.2.1/InputData/zzz_endo-learn/FoTOMRAEL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D1A431-AF32-4B88-8B24-231C99A9E877}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A7D2BE-0DD2-E34F-842C-3CAFC902A4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>About</t>
   </si>
@@ -103,13 +103,22 @@
   </si>
   <si>
     <t>onshore wind, offshore wind, solar PV, batteries, and CCS.</t>
+  </si>
+  <si>
+    <t>Mexico:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costs much more influenced by outside developments than the U.S. but wish to consider domestic policies. </t>
+  </si>
+  <si>
+    <t>Original US value 25% - changed to 50% for Mexico</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,14 +130,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -159,15 +160,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -178,8 +177,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -460,19 +458,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="52.5703125" customWidth="1"/>
+    <col min="2" max="2" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -480,93 +480,103 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -584,27 +594,29 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.42578125" customWidth="1"/>
+    <col min="1" max="1" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5">
-        <v>0.25</v>
+      <c r="B2" s="4">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
